--- a/medicine/Pharmacie/Diascordium/Diascordium.xlsx
+++ b/medicine/Pharmacie/Diascordium/Diascordium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le diascordium était un remède de la famille des électuaires, appelé aussi électuaire opiacé astringent. Il venait après la thériaque, étant d'ailleurs comme une thériaque simplifiée mais additionnée d'opium (laudanum), au second rang de la pharmacopée maritime occidentale au XVIIIe siècle [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le diascordium était un remède de la famille des électuaires, appelé aussi électuaire opiacé astringent. Il venait après la thériaque, étant d'ailleurs comme une thériaque simplifiée mais additionnée d'opium (laudanum), au second rang de la pharmacopée maritime occidentale au XVIIIe siècle .
 Il était composé selon l'ouvrage de Maistral de :
 feuilles sèches de scordium : 1/2 once
 racines de bistorte : 1/2 once
